--- a/Results.xlsx
+++ b/Results.xlsx
@@ -405,7 +405,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
